--- a/public/storage/templates/Items.xlsx
+++ b/public/storage/templates/Items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\American_Brands\public\storage\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF77B2D-C41A-43CF-872C-E2C21D6F75B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD46A1-34D1-4C90-B4F6-8DE2CFD5D672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CF83FA31-6927-4373-8C91-BB86A259EBCC}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Código (SKU) - Único</t>
   </si>
   <si>
-    <t>Otras especificaciones…</t>
+    <t>Oferta</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B6934E-28B3-4651-AA17-2CDE47AE13DC}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
